--- a/CalculateTable/MOS_select.xlsx
+++ b/CalculateTable/MOS_select.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27616"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sch\Desktop\New毕设\选型计算表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sch\Desktop\Digital_BuckBoostPower\CalculateTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5585A0CE-ED60-4A18-950D-9D2DF0E73DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC629A2-AB55-4F92-A0BA-2347ABD270F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1770" windowWidth="35685" windowHeight="18315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-735" yWindow="3720" windowWidth="32370" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标称工作漏源电压（V）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上升时间（ns）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +113,99 @@
   </si>
   <si>
     <t>理想总损耗（W）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导通损耗Pon（W）</t>
+  </si>
+  <si>
+    <t>开关损耗（W）</t>
+  </si>
+  <si>
+    <t>理想总损耗（W）</t>
+  </si>
+  <si>
+    <t>母线电压耐压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-20V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRS2186STRPBF核心参数表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供电电压范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ta=-40°to125°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Typ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA240LCSOIC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,6 +297,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -526,10 +618,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>16</v>
@@ -537,17 +629,17 @@
       <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>17</v>
+      <c r="K1" s="4">
+        <v>48</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -582,7 +674,7 @@
         <v>200000</v>
       </c>
       <c r="K2" s="4">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2">
         <f>I2*I2*E2/1000</f>
@@ -590,11 +682,11 @@
       </c>
       <c r="M2" s="2">
         <f>K2*I2*J2/6*(G2+H2)/1000000000</f>
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="N2" s="2">
         <f>L2+M2</f>
-        <v>0.34650000000000003</v>
+        <v>0.3765</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -629,7 +721,7 @@
         <v>200000</v>
       </c>
       <c r="K3" s="4">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" ref="L3:L9" si="0">I3*I3*E3/1000</f>
@@ -637,11 +729,11 @@
       </c>
       <c r="M3" s="2">
         <f t="shared" ref="M3:M9" si="1">K3*I3*J3/6*(G3+H3)/1000000000</f>
-        <v>0.74160000000000004</v>
+        <v>0.98880000000000001</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" ref="N3:N9" si="2">L3+M3</f>
-        <v>1.0116000000000001</v>
+        <v>1.2587999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -676,7 +768,7 @@
         <v>200000</v>
       </c>
       <c r="K4" s="4">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" si="0"/>
@@ -684,11 +776,11 @@
       </c>
       <c r="M4" s="2">
         <f t="shared" si="1"/>
-        <v>6.4799999999999996E-2</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="2"/>
-        <v>0.38880000000000003</v>
+        <v>0.41039999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -723,7 +815,7 @@
         <v>200000</v>
       </c>
       <c r="K5" s="4">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
@@ -731,11 +823,11 @@
       </c>
       <c r="M5" s="2">
         <f t="shared" si="1"/>
-        <v>9.5039999999999999E-2</v>
+        <v>0.12672</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="2"/>
-        <v>0.41004000000000002</v>
+        <v>0.44172</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -770,7 +862,7 @@
         <v>200000</v>
       </c>
       <c r="K6" s="4">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
@@ -778,11 +870,11 @@
       </c>
       <c r="M6" s="2">
         <f t="shared" si="1"/>
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" si="2"/>
-        <v>0.58499999999999996</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -817,7 +909,7 @@
         <v>200000</v>
       </c>
       <c r="K7" s="4">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
@@ -825,11 +917,11 @@
       </c>
       <c r="M7" s="2">
         <f t="shared" si="1"/>
-        <v>0.2016</v>
+        <v>0.26879999999999998</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" si="2"/>
-        <v>0.60660000000000003</v>
+        <v>0.67379999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -864,7 +956,7 @@
         <v>200000</v>
       </c>
       <c r="K8" s="4">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
@@ -872,11 +964,11 @@
       </c>
       <c r="M8" s="2">
         <f t="shared" si="1"/>
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" si="2"/>
-        <v>0.52200000000000002</v>
+        <v>0.58200000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -911,7 +1003,7 @@
         <v>200000</v>
       </c>
       <c r="K9" s="4">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="0"/>
@@ -919,14 +1011,264 @@
       </c>
       <c r="M9" s="2">
         <f t="shared" si="1"/>
-        <v>6.4799999999999996E-2</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" si="2"/>
-        <v>0.1278</v>
-      </c>
+        <v>0.14940000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.3765</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.27</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.2587999999999999</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.41039999999999999</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.315</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.12672</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.44172</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.26879999999999998</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.67379999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.58200000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.14940000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="A24:D24"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
